--- a/FichesTemps/EvalElementsDeCompetences.xlsx
+++ b/FichesTemps/EvalElementsDeCompetences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpbel\Documents\Rooftop\FichesTemps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC6C029-9DE6-49D9-840B-63EE91CDE98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47512082-5B0A-4B93-8B69-F73080B22A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Barème</t>
   </si>
@@ -436,9 +436,6 @@
     <t>Nous aurions pu trouver un outil qui génère la documentation pour notre API, cela nous aurais permis d'avoir de la documentation programmeur directement lié au code qui nécessiterait moins de temps à maintenir.</t>
   </si>
   <si>
-    <t>La documentation que nous avons réalisée était un peu trop spécialisée. Certains documents n'étaient peut-être pas nécessaires pour le projet, nous avons donc perdu un peu de temps à les réaliser.</t>
-  </si>
-  <si>
     <t>Puisque notre documentation est sous format .docx, elle n'a pas un bon format pour être disponible en ligne. Cependant ce n'est pas difficile à changer en .pdf</t>
   </si>
   <si>
@@ -446,6 +443,15 @@
   </si>
   <si>
     <t>Comme écrit plus haut l'estimation du temps requis pour les cas d'utilisation n'a pas été très réaliste, ainsi beaucoup de tâches ont excéder le temps requis à chaque semaine et d'autres ont prit beaucoup moins de temps à chaque semaine. De plus, puisque l'estimation n'était pas réaliste, alors l'échéancier de travail a été très difficile à suivre à cause du temps qui était iréaliste.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La documentation que nous avons réalisée était un peu trop spécialisée. Certains documents n'étaient peut-être pas nécessaires pour le projet, nous avons donc perdu un peu de temps à les réaliser. </t>
+  </si>
+  <si>
+    <t>Nous n'avons pas assez vérifié le code de nos coéquipiers, cela aurait été facile à faire avec des pulls requests et des branches du git. Cela pourrait potentiellement causer une baisse de qualité du code à certains endroits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous avons créé un document détaillé pour expliquer clairement l'utilisation du logiciel par n'importe quel type d'utilisateur. Lors de la démonstration de l'application à la cliente, nous avons pu observé l'un de ces utilisateurs finaux intéragir avec notre application et ainsi connaître la profondeur et les aspects à couvrir dans notre document de formation. Nous sommes donc confiant qu'il convient à ceux-ci.  </t>
   </si>
 </sst>
 </file>
@@ -495,9 +501,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1062,7 +1066,7 @@
   <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1179,7 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1188,7 +1192,7 @@
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1200,7 +1204,9 @@
         <v>0.02</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -1212,7 +1218,7 @@
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1252,7 +1258,7 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -1275,7 +1281,9 @@
         <v>0.1</v>
       </c>
       <c r="D19" s="18"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>

--- a/FichesTemps/EvalElementsDeCompetences.xlsx
+++ b/FichesTemps/EvalElementsDeCompetences.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpbel\Documents\Rooftop\FichesTemps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cegep\Session 6\Projet\Rooftop\FichesTemps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47512082-5B0A-4B93-8B69-F73080B22A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0921DFCB-F6B7-4760-87D4-1104E3E323D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Barème</t>
   </si>
@@ -70,35 +70,6 @@
       <t xml:space="preserve">•	Faire le découpage fonctionnel d’une solution informatique.
 •	Faire une estimation du temps nécessaire à la réalisation des tâches issues du découpage fonctionnel.
 •	Être capable de valider la faisabilité d’une échéance de travail établie. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2. Procéder à la planification des activités.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF203864"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>•	Déterminer le chemin critique pour la réalisation d’une solution informatique.
-•	Être capable de créer une échéance pour la réalisation d’une solution informatique qui prend en considération les imprévus possibles.
-•	Planifier un projet informatique en suivant une méthodologie reconnue. 
-•	Utiliser les outils adéquats pour la création et le suivi de l’échéancier.
-•	Être capable d’attribuer correctement les ressources humaines disponibles pour réaliser un projet informatique à l’intérieur du temps prévu à l’échéancier.
-•	Communiquer efficacement les tâches individuelles à réaliser à chacun des membres de l’équipe de travail.</t>
     </r>
   </si>
   <si>
@@ -427,31 +398,64 @@
     <t>La documentation et le découpage fonctionnel de notre projet a été, à notre humble avis, très bien effectué. Cependant, la gestion de temps fut somme toute inefficace. Les durées associées aux cas d'utilisations étaient inadéquates. Il y a eu un manque de compréhension de notre part. Durant notre parcours collégial, nous étions habitués à planifier des durées par cas d'utilisations. Cependant, dans un contexte comme celui-ci, il aurait été plus pertinent de planifier par semaine.</t>
   </si>
   <si>
-    <t>Il aurait été plus adéquat de créer des branches dans le git pour mieux organiser la validation des problèmes et permettre la vérification des développements d'une manière plus organisée et sécuritaire. Ensuite, selon la méthodologie agile, il aurait été nécessaire de revenir en équipe au début de chaque période de travail, cependant, nos discussions d'équipe étaient plutôt ponctuels sans prévision.</t>
-  </si>
-  <si>
-    <t>Nous avons souvent mal estimé le temps requis pour compléter les tâches. L'échéancier n'était pas toujours respecté, car il était difficile à suivre dans un contexte où le langage choisi était à apprendre.</t>
-  </si>
-  <si>
     <t>Nous aurions pu trouver un outil qui génère la documentation pour notre API, cela nous aurais permis d'avoir de la documentation programmeur directement lié au code qui nécessiterait moins de temps à maintenir.</t>
   </si>
   <si>
     <t>Puisque notre documentation est sous format .docx, elle n'a pas un bon format pour être disponible en ligne. Cependant ce n'est pas difficile à changer en .pdf</t>
   </si>
   <si>
-    <t>Notre documentation est seulement disponible dans le forlder partagé au client. Il aurait été pertinant de le diffusé en ligne, par exemple dans le ReadME du projet</t>
-  </si>
-  <si>
     <t>Comme écrit plus haut l'estimation du temps requis pour les cas d'utilisation n'a pas été très réaliste, ainsi beaucoup de tâches ont excéder le temps requis à chaque semaine et d'autres ont prit beaucoup moins de temps à chaque semaine. De plus, puisque l'estimation n'était pas réaliste, alors l'échéancier de travail a été très difficile à suivre à cause du temps qui était iréaliste.</t>
   </si>
   <si>
-    <t xml:space="preserve">La documentation que nous avons réalisée était un peu trop spécialisée. Certains documents n'étaient peut-être pas nécessaires pour le projet, nous avons donc perdu un peu de temps à les réaliser. </t>
-  </si>
-  <si>
     <t>Nous n'avons pas assez vérifié le code de nos coéquipiers, cela aurait été facile à faire avec des pulls requests et des branches du git. Cela pourrait potentiellement causer une baisse de qualité du code à certains endroits.</t>
   </si>
   <si>
     <t xml:space="preserve">Nous avons créé un document détaillé pour expliquer clairement l'utilisation du logiciel par n'importe quel type d'utilisateur. Lors de la démonstration de l'application à la cliente, nous avons pu observé l'un de ces utilisateurs finaux intéragir avec notre application et ainsi connaître la profondeur et les aspects à couvrir dans notre document de formation. Nous sommes donc confiant qu'il convient à ceux-ci.  </t>
+  </si>
+  <si>
+    <t>Nous avons placé nos fichiers dans des fichiers qui ont du sens (exemple la documentation dans le fichier docs) avec une structure vu dans le cour de génie 1. Il est donc facile de se retrouver. Donc nous pensons donc que c'est l'archivage des documents est bien fait.</t>
+  </si>
+  <si>
+    <t>Nous aurions pu mieux utiliser la méthodologie de travail "AGILE" pour mieux gérer nos cycles de développement. Par exemple, on aurait pu faire plus de rencontres AGILE et plus réviser le code de nos pairs pour produire un code plus homogène et simple à comprendre. En général, nous avons bien suivis nos devis de développement, mais quelque fois le temps pris pour faire certains développement était plus long que prévu, ainsi nous aurrions pu mieux prévoir le dévelopement de l'application.</t>
+  </si>
+  <si>
+    <t>Nous avons bien communiqué tout au long du développement entre nous (sur discord, en présence et sur notre Trello), pour résoudre les problèmes qui survenaient. Donc, au niveau de la communication, nous sommes satisfaits.</t>
+  </si>
+  <si>
+    <t>La documentation d'utilisateur contient des instructions claires et nettes sur les prérequis de l'utilisation de la solution informatique et sur les procédures d'implémentation. Nous sommes donc certains que la documentation respecte les demandes.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Procéder à la planification des activités.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF203864"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•	Déterminer le chemin critique pour la réalisation d’une solution informatique.
+•	Être capable de créer une échéance pour la réalisation d’une solution informatique qui prend en considération les imprévus possibles.
+•	Planifier un projet informatique en suivant une méthodologie reconnue. 
+•	Utiliser les outils adéquats pour la création et le suivi de l’échéancier.
+•	Être capable d’attribuer correctement les ressources humaines disponibles pour réaliser un projet informatique à l’intérieur du temps prévu à l’échéancier.
+•	Communiquer efficacement les tâches individuelles à réaliser à chacun des membres de l’équipe de travail.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous avons utilisé un Trello pour nous aider à distribuer les tâches et faire un suivi des tâches terminées. De plus, malgré les développements qui nous on prit plus ou moins de temps que prévu, nous avons bien réorganiser l'échéancier et la distribution des tâches pour réussir à compléter le projet dans les temps. Nous avons donc eu une bonne gestion des tâches. </t>
+  </si>
+  <si>
+    <t>Il aurait été plus adéquat de créer des branches dans le git pour mieux organiser la validation des problèmes et permettre la vérification des développements d'une manière plus organisée et sécuritaire. Ensuite, selon la méthodologie agile, il aurait été nécessaire de revenir en équipe au début de chaque période de travail, cependant, nos discussions d'équipe étaient plutôt ponctuelles sans prévision.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La documentation que nous avons réalisée était un peu trop spécialisée. Certains diagrammes et documents (par exemple: le diagramme de paquetage, le diagramme robustesse, etc.) n'étaient peut-être pas nécessaires pour le projet, nous avons donc perdu un peu de temps à les réaliser. </t>
+  </si>
+  <si>
+    <t>Il aurait été mieux pour un client que la documentation soit disponible à partir de l'application, par exemple par un hyperlien. Cela aurait rendu la documentation plus accessible.</t>
   </si>
 </sst>
 </file>
@@ -767,7 +771,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1065,21 +1069,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="69.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="116.7109375" style="2" customWidth="1"/>
-    <col min="6" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="69.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="116.6640625" style="2" customWidth="1"/>
+    <col min="6" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
@@ -1092,7 +1096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1101,7 +1105,7 @@
       <c r="D3" s="16"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -1111,207 +1115,215 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C5" s="10">
         <v>0.05</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="10">
         <v>0.05</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="10"/>
       <c r="D7" s="16"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="16"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10">
         <v>0.02</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10">
         <v>0.02</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="10">
         <v>0.02</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10">
         <v>0.02</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="10">
         <v>0.01</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="10">
         <v>0.01</v>
       </c>
       <c r="D14" s="19"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="16"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
       <c r="D16" s="16"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="10">
         <v>0.05</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="10">
         <v>0.5</v>
       </c>
       <c r="D18" s="18"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E18" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="10">
         <v>0.1</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="10">
         <v>0.05</v>
       </c>
       <c r="D20" s="18"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E20" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="10">
         <v>0.05</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="16">
         <f>SUM(D3:D21)</f>

--- a/FichesTemps/EvalElementsDeCompetences.xlsx
+++ b/FichesTemps/EvalElementsDeCompetences.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cegep\Session 6\Projet\Rooftop\FichesTemps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpbel\Documents\Rooftop\FichesTemps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0921DFCB-F6B7-4760-87D4-1104E3E323D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAF7A3F-D854-4873-85D1-A9B1FF7304D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -404,16 +404,10 @@
     <t>Puisque notre documentation est sous format .docx, elle n'a pas un bon format pour être disponible en ligne. Cependant ce n'est pas difficile à changer en .pdf</t>
   </si>
   <si>
-    <t>Comme écrit plus haut l'estimation du temps requis pour les cas d'utilisation n'a pas été très réaliste, ainsi beaucoup de tâches ont excéder le temps requis à chaque semaine et d'autres ont prit beaucoup moins de temps à chaque semaine. De plus, puisque l'estimation n'était pas réaliste, alors l'échéancier de travail a été très difficile à suivre à cause du temps qui était iréaliste.</t>
-  </si>
-  <si>
     <t>Nous n'avons pas assez vérifié le code de nos coéquipiers, cela aurait été facile à faire avec des pulls requests et des branches du git. Cela pourrait potentiellement causer une baisse de qualité du code à certains endroits.</t>
   </si>
   <si>
     <t xml:space="preserve">Nous avons créé un document détaillé pour expliquer clairement l'utilisation du logiciel par n'importe quel type d'utilisateur. Lors de la démonstration de l'application à la cliente, nous avons pu observé l'un de ces utilisateurs finaux intéragir avec notre application et ainsi connaître la profondeur et les aspects à couvrir dans notre document de formation. Nous sommes donc confiant qu'il convient à ceux-ci.  </t>
-  </si>
-  <si>
-    <t>Nous avons placé nos fichiers dans des fichiers qui ont du sens (exemple la documentation dans le fichier docs) avec une structure vu dans le cour de génie 1. Il est donc facile de se retrouver. Donc nous pensons donc que c'est l'archivage des documents est bien fait.</t>
   </si>
   <si>
     <t>Nous aurions pu mieux utiliser la méthodologie de travail "AGILE" pour mieux gérer nos cycles de développement. Par exemple, on aurait pu faire plus de rencontres AGILE et plus réviser le code de nos pairs pour produire un code plus homogène et simple à comprendre. En général, nous avons bien suivis nos devis de développement, mais quelque fois le temps pris pour faire certains développement était plus long que prévu, ainsi nous aurrions pu mieux prévoir le dévelopement de l'application.</t>
@@ -456,6 +450,12 @@
   </si>
   <si>
     <t>Il aurait été mieux pour un client que la documentation soit disponible à partir de l'application, par exemple par un hyperlien. Cela aurait rendu la documentation plus accessible.</t>
+  </si>
+  <si>
+    <t>Nous avons placé nos fichiers dans des dossiers qui ont du sens (exemple la documentation dans le fichier docs) avec une structure vue dans le cours de génie 1. Il est facile de se retrouver. Nous pensons donc que l'archivage des documents est bien fait.</t>
+  </si>
+  <si>
+    <t>Comme écrit plus haut l'estimation du temps requis pour les cas d'utilisation n'a pas été très réaliste, ainsi beaucoup de tâches ont excédées le temps requis à chaque semaine et d'autres ont prit beaucoup moins de temps à chaque semaine. De plus, puisque l'estimation n'était pas réaliste, alors l'échéancier de travail a été très difficile à suivre à cause du temps qui était irréaliste.</t>
   </si>
 </sst>
 </file>
@@ -771,7 +771,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1069,21 +1069,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="69.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="116.6640625" style="2" customWidth="1"/>
-    <col min="6" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="69.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="116.7109375" style="2" customWidth="1"/>
+    <col min="6" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
@@ -1096,7 +1096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="D3" s="16"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -1118,20 +1118,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="10">
         <v>0.05</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
         <v>5</v>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="10"/>
       <c r="D7" s="16"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="9" t="s">
         <v>7</v>
@@ -1173,7 +1173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="9" t="s">
         <v>8</v>
@@ -1183,10 +1183,10 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="9" t="s">
         <v>9</v>
@@ -1199,7 +1199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -1209,10 +1209,10 @@
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -1222,10 +1222,10 @@
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="9" t="s">
         <v>12</v>
@@ -1235,17 +1235,17 @@
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
       <c r="D15" s="16"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="9" t="s">
         <v>14</v>
@@ -1264,10 +1264,10 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="146.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="9" t="s">
         <v>15</v>
@@ -1277,10 +1277,10 @@
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="9" t="s">
         <v>16</v>
@@ -1290,10 +1290,10 @@
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="9" t="s">
         <v>17</v>
@@ -1303,10 +1303,10 @@
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="9" t="s">
         <v>18</v>
@@ -1316,10 +1316,10 @@
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="14" t="s">

--- a/FichesTemps/EvalElementsDeCompetences.xlsx
+++ b/FichesTemps/EvalElementsDeCompetences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cegep\Session 6\Projet\Rooftop\FichesTemps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0921DFCB-F6B7-4760-87D4-1104E3E323D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C464FD0-8E3E-43DA-BE60-A39F76174878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -395,28 +395,10 @@
     <t>Grand total</t>
   </si>
   <si>
-    <t>La documentation et le découpage fonctionnel de notre projet a été, à notre humble avis, très bien effectué. Cependant, la gestion de temps fut somme toute inefficace. Les durées associées aux cas d'utilisations étaient inadéquates. Il y a eu un manque de compréhension de notre part. Durant notre parcours collégial, nous étions habitués à planifier des durées par cas d'utilisations. Cependant, dans un contexte comme celui-ci, il aurait été plus pertinent de planifier par semaine.</t>
-  </si>
-  <si>
-    <t>Nous aurions pu trouver un outil qui génère la documentation pour notre API, cela nous aurais permis d'avoir de la documentation programmeur directement lié au code qui nécessiterait moins de temps à maintenir.</t>
-  </si>
-  <si>
     <t>Puisque notre documentation est sous format .docx, elle n'a pas un bon format pour être disponible en ligne. Cependant ce n'est pas difficile à changer en .pdf</t>
   </si>
   <si>
-    <t>Comme écrit plus haut l'estimation du temps requis pour les cas d'utilisation n'a pas été très réaliste, ainsi beaucoup de tâches ont excéder le temps requis à chaque semaine et d'autres ont prit beaucoup moins de temps à chaque semaine. De plus, puisque l'estimation n'était pas réaliste, alors l'échéancier de travail a été très difficile à suivre à cause du temps qui était iréaliste.</t>
-  </si>
-  <si>
     <t>Nous n'avons pas assez vérifié le code de nos coéquipiers, cela aurait été facile à faire avec des pulls requests et des branches du git. Cela pourrait potentiellement causer une baisse de qualité du code à certains endroits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nous avons créé un document détaillé pour expliquer clairement l'utilisation du logiciel par n'importe quel type d'utilisateur. Lors de la démonstration de l'application à la cliente, nous avons pu observé l'un de ces utilisateurs finaux intéragir avec notre application et ainsi connaître la profondeur et les aspects à couvrir dans notre document de formation. Nous sommes donc confiant qu'il convient à ceux-ci.  </t>
-  </si>
-  <si>
-    <t>Nous avons placé nos fichiers dans des fichiers qui ont du sens (exemple la documentation dans le fichier docs) avec une structure vu dans le cour de génie 1. Il est donc facile de se retrouver. Donc nous pensons donc que c'est l'archivage des documents est bien fait.</t>
-  </si>
-  <si>
-    <t>Nous aurions pu mieux utiliser la méthodologie de travail "AGILE" pour mieux gérer nos cycles de développement. Par exemple, on aurait pu faire plus de rencontres AGILE et plus réviser le code de nos pairs pour produire un code plus homogène et simple à comprendre. En général, nous avons bien suivis nos devis de développement, mais quelque fois le temps pris pour faire certains développement était plus long que prévu, ainsi nous aurrions pu mieux prévoir le dévelopement de l'application.</t>
   </si>
   <si>
     <t>Nous avons bien communiqué tout au long du développement entre nous (sur discord, en présence et sur notre Trello), pour résoudre les problèmes qui survenaient. Donc, au niveau de la communication, nous sommes satisfaits.</t>
@@ -456,6 +438,24 @@
   </si>
   <si>
     <t>Il aurait été mieux pour un client que la documentation soit disponible à partir de l'application, par exemple par un hyperlien. Cela aurait rendu la documentation plus accessible.</t>
+  </si>
+  <si>
+    <t>Nous aurions pu mieux utiliser la méthodologie de travail "AGILE" pour mieux gérer nos cycles de développement. Par exemple, on aurait pu faire plus de rencontres AGILE et plus réviser le code de nos pairs pour produire un code plus homogène et simple à comprendre. En général, nous avons bien suivi nos devis de développement, mais quelquefois le temps pris pour faire certains développements était plus long que prévu, ainsi nous aurions pu mieux prévoir le développement de l'application.</t>
+  </si>
+  <si>
+    <t>Comme écrit plus haut l'estimation du temps requis pour les cas d'utilisation n'a pas été très réaliste, ainsi beaucoup de tâches ont excédé le temps requis chaque semaine et d'autres ont pris beaucoup moins de temps chaque semaine. De plus, puisque l'estimation n'était pas réaliste, alors l'échéancier de travail a été très difficile à suivre à cause du temps qui était irréaliste.</t>
+  </si>
+  <si>
+    <t>Nous avons placé nos fichiers dans des fichiers qui ont du sens (exemple la documentation dans le fichier docs) avec une structure vue dans le cours de génie 1. Il est donc facile de se retrouver. Donc nous pensons donc que c'est l'archivage des documents est bien fait.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous avons créé un document détaillé pour expliquer clairement l'utilisation du logiciel par n'importe quel type d'utilisateur. Lors de la démonstration de l'application à la cliente, nous avons pu observer l'un de ses utilisateurs finaux interagir avec notre application et ainsi connaître la profondeur et les aspects à couvrir dans notre document de formation. Nous sommes donc sûrs qu'il convient à ceux-ci.  </t>
+  </si>
+  <si>
+    <t>Nous aurions pu trouver un outil qui génère la documentation pour notre API, cela nous aurait permis d'avoir de la documentation programmeur directement lié au code qui nécessiterait moins de temps à maintenir.</t>
+  </si>
+  <si>
+    <t>La documentation et le découpage fonctionnel de notre projet ont été, à notre humble avis, très bien effectués. Cependant, la gestion de temps fut somme toute inefficace. Les durées associées aux cas d'utilisations étaient inadéquates. Il y a eu un manque de compréhension de notre part. Durant notre parcours collégial, nous étions habitués à planifier des durées par cas d'utilisations. Cependant, dans un contexte comme celui-ci, il aurait été plus pertinent de planifier par semaine.</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,20 +1115,20 @@
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C5" s="10">
         <v>0.05</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
